--- a/data/financial_statements/socf/FRC.xlsx
+++ b/data/financial_statements/socf/FRC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,1683 +578,1686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-1279000000</v>
+      </c>
+      <c r="C2">
         <v>445000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>433000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>401000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>400000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>370000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>373000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>335000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>295409000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>293137000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>256768000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>218686000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>246001000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>234844000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>222564000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>226591000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>231418000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>213546000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>209781000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>199083000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>194277000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>200009000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>186600000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>176774000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>179118000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>171818000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>164997000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>157495000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>140046000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>134842000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>131345000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>115912000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>115459000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>136011000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>120832000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>114704000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>115299000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>111748000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>112470000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>122553000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>48000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>49000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>51000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>44000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>48000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>49000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>43000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>41462000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>40906000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>43132000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>40500000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>40138000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>36208000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>31949000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>29705000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>30865000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>29408000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>28013000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>26077000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>27890000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>23804000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>18579000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>21681000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>18121000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>11873000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>15339000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>10789000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>8691000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>5701000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>7918000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>4552000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1992000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1341000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-4571000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-2964000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-7872000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-11837000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-13862000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-14449000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>37000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>64000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>145000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>88000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>69000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>43000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>56000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>51637000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>16670000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>57895000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>99798000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>15135000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-6275000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>29970000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>64170000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>36395000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>14153000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>34616000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-13738000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>63584000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-15010000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>14872000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>77531000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-2610000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-6239000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>9663000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>59147000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-10687000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-1714000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-9529000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>46542000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-34000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-27716000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-7804000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>35690000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>10225000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4074000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-4703000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>33102000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-188000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-257000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-359000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-181000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-7000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-216000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-695000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-231627000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-621876000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-152441000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>152944000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-145880000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-86656000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-198591000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-1873000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-405000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>36838000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>16366000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1101000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-179000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>19576000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-5708000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>905000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>73239000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-34832000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-62312000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>5529000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>20847000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-9110000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>59425000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>9166000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>17528000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>8874000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-45274000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-12893000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>7995000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-8614000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>160129000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-22890000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-230000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-183000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-228000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>630000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>59000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-97000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-207000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-44389000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>345528000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-92764000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-280375000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-1018598000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>995797000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>302152000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-78351000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-333113000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>506117000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-211511000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>56194000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-66112000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>61776000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>29747000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-18458000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>39092000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>173776000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-26327000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-105191000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-64674000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>109998000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>36428000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-108441000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>99508000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>38088000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>44581000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-117144000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>39898000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-11772000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>162271000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-221544000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>112000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>106000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>981000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>539000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>152000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-468000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>112492000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>74365000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>112590000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>231553000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-863204000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1173918000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>388044000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>240242000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-34840000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>800062000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>77265000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>268717000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>219460000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>290155000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>244090000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>258433000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>306960000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>316396000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>101360000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>127769000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>94223000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>239717000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>225587000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>67731000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>234453000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>156598000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>107764000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>17393000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>165545000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>83599000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>416305000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-103228000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>-48000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-49000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-55000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-60000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-48000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-44000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-46000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-48156000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-32545000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-29413000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-38886000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-46984000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-50734000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-36534000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-33748000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-34629000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-36444000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-36509000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-26293000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-41481000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-38326000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-42090000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-44809000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-29908000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-21107000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-19765000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-15968000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-21765000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-9695000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-13449000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-7805000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-14189000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-11124000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-8639000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-8118000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-13574000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-15851000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-11981000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-19174000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9">
         <v>29265000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-31804000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-115140000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10">
         <v>-3150000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-28789000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>19273000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-19210000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-63000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>30801000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-511000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-1569000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-4414000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-1232000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-1265000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-1199000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-2733000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>348281700</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>289865200</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-97719000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-289427900</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-929904100</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-1163158900</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-10626000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>240689000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>186959000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>259771000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>96175000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2130042000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-1054737000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-649643000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-969109000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-672210000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-2271969000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-1098416000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-279923000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-826374000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-2388004000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-336614000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-196971000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-803529000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-921595000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-366181000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-472868000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-175044000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-601957000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-141757000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-90133000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-565464000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-7317000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-10248000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-6389000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-6616000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-5293000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-5062000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-5545000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-7842510000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-4159179000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-4755746000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-5199565000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-4528740000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-4104281000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-4946164000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-1424815000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-3468660000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-3596625000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-3462845000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-3072960000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-2815836000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-2335315000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-3942725000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-1877814000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-2272454000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-2408335000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-2647157000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-1407441000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-1626800000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-1508928000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-2177788000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-1067324000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-1324772000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-432335000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-1403797000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-1048102000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-1672144000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-2037637000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-2273436000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-187786000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-7876000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-11866000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-10858000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-7908000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-6606000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-6305000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-8324000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-7542380000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-3901860000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-4882881000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-5527879000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-5505630000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-5318172000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-4993324000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-1217874000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-3316327000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-3373303000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-3403179000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-969211000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-3912050000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-3023283000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-4953924000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-2594833000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-4606134000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-3527858000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-2946845000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-2249783000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-4151707000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-1852087000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-2391358000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-1878658000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-2260556000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-809640000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-1856515000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-1260053000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-2268402000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-2214455000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-2375613000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-741623000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>6800000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-4000000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-1300000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-1505000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-1250000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-1751497000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-1900000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-840174000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3746671000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1325000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1875000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1400000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-800000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-900000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-550000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1750000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>100000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-350000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1027342000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2192801000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>388702000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1198992000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-812923000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2098449000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-200893000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-351073000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-375392000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-101692000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-353239000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-2160100</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-274653000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>292366000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>498611000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-3867000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>427873000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>455983000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1031693000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>409000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>12000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>9000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>450000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>338000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>231909000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4461000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5972000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>297658000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5139000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4256000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4780000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>174825000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>4581000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>203095000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2798000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3033000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>278788000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2296000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2322000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>236166000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>327666000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2006000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>204003000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2253000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>227961000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1413000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1033000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>205268000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>760000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1593000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>711000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>241011000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>654000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>672000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1063000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1963000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16">
         <v>721000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>736000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>583000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-99961000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>491961000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>193000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-199999000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-52000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>290211000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-150000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>15000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>43660000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-199525000</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2149,530 +2266,530 @@
         <v>0</v>
       </c>
       <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>145184000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>96590000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>194158000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>183791000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-90000000</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C17">
         <v>-90000000</v>
       </c>
       <c r="D17">
+        <v>-90000000</v>
+      </c>
+      <c r="E17">
         <v>-77000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-72000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-65000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-63000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-54000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-51940000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-49873000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-49892000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-46295000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-43045000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-45231000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-45222000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-43502000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-46511000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-46973000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-41860000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-40224000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-42083000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-41633000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-41537000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-40336000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-41874000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-41835000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-41184000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-38647000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-36998000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-36988000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-35933000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-33445000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-33434000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-33400000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-33264000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-29933000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-28800000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-26323000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-25586000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-7776000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>6740000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>3523000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5722000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>10937000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>10648000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6702000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12969000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10504790000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5872924000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4804173000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3548113000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>4407297000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2271758000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1772399000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2528546000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4290605000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1987590000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1478060000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2330595000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3421298000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>2131598000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>2051328000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>2600056000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3535145000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>3887124000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>202127000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3029154000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3552929000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2451236000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1929118000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2819727000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1505359000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>581213000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1477733000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1487308000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>813870000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>3071623000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1382958000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-230456000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>7059000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>10241000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>5657000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7595000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10469000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5141000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12586000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8833300000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4419470000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3920083000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>7546147000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>5887391000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>4105783000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3131957000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1859869000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>3148677000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1593660000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>3479209000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2243404000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>3308010000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>3119603000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>4248574000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2985063000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>5019932000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>3034372000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2463395000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2937051000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>3392816000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2040271000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1889116000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2638311000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1470525000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>274753000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1737546000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2196997000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>976015000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>3473845000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1998209000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>795424000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-705000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-1519000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-5191000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>668000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4402000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-1012000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3794000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1403408000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>591979000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-850208000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2249821000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-481441000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-38473000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-1473323000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>882237000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-202486000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-979581000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>153295000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1542910000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-384578000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>386474000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-461260000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>648663000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>720755000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-177090000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-382090000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>815037000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-664670000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>427901000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-276655000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>827384000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-555578000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-378289000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-11205000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>954337000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-1126842000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1342989000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>38901000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-49427000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>12947000000</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2681,34 +2798,34 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>5095000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>443000</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>1699557000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-159000</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>2811159000</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2717,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>2297021000</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2729,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>2107722000</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2741,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>1131110000</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -2753,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>817150000</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2765,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
         <v>807885000</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -2777,143 +2894,146 @@
         <v>0</v>
       </c>
       <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>602264000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-705000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-1519000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7756000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>668000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4402000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-1012000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>8889000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1403851000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>591979000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-850208000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3949378000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-481600000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-38473000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-1473323000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3693396000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-202486000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-979581000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>153295000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>3839931000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-384578000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>386474000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-461260000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>2756385000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>720755000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-177090000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-382090000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1946147000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-664670000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>427901000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-276655000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1644534000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-555578000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-378289000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-11205000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1762222000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-1126842000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1342989000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>38901000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>552837000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>139000000</v>
+      </c>
+      <c r="C23">
         <v>-50000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-49000000</v>
-      </c>
-      <c r="D23">
-        <v>-40000000</v>
       </c>
       <c r="E23">
         <v>-40000000</v>
@@ -2922,570 +3042,573 @@
         <v>-40000000</v>
       </c>
       <c r="G23">
+        <v>-40000000</v>
+      </c>
+      <c r="H23">
         <v>-39000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-36000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-35593000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-35057000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-35075000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-33275000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-32407000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-32444000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-32434000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-30715000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-30283000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-29861000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-29697000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-28002000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-27811000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-27361000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-27193000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>-25184000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-24498000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-24458000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-23808000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-22187000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-21684000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-21674000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-21522000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-19556000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-19545000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-19511000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-19375000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-16044000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-16000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-15934000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-15880000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.4944</v>
+      </c>
+      <c r="C24">
         <v>0.284</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2327</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.0609</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.1862</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-0.0496</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.1609</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.25</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.5431</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.6228</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.8567</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.2075</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.5968</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.6142</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.5338000000000001</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.3491</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.5341</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.5345</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.4607</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.4315</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.5731000000000001</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.4401</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.4413</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.2987</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.3343</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.3485</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.3796</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.2344</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.3521</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.3342</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.4227</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.468</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.6878</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.6384</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.5611</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.5437</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.6378</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.5291</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.7492</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.5954</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>-418000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-440000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-587000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>449000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>52000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-313000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-902000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-276016000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-276348000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-245205000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-127431000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-1164478000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>909141000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>103561000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-80224000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-333518000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>542955000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-195145000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>57295000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-66291000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>81352000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>24039000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-17553000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>112331000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>138944000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-88639000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-99662000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-43827000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>100888000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>95853000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-99275000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>117036000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>46962000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>-693000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-130037000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>47893000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-20386000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>322400000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-244434000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>-511000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-1569000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-4414000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-1232000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-1265000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-1199000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-2733000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>348281700</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>289865200</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-97719000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-289427900</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-929904100</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-1163158900</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-10626000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>240689000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>186959000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>259771000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>96175000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2130042000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-1054737000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-649643000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-969109000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-672210000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-2271969000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-1098416000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-279923000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-826374000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-2388004000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-333464000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-200121000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-803529000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-921595000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-366181000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-444079000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-203833000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-582684000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-160966900</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-90196100</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-534663000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>-40000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-41000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-37000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-32000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-25000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-24000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-18000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-16347000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-14816000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-14817000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-13020000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-10638000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-12787000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-12788000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-12787000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-16228000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-17112000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-12163000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-12222000</v>
-      </c>
-      <c r="U27">
-        <v>-14272000</v>
       </c>
       <c r="V27">
         <v>-14272000</v>
       </c>
       <c r="W27">
+        <v>-14272000</v>
+      </c>
+      <c r="X27">
         <v>-14344000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-15152000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-17376000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-17377000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-17376000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-16460000</v>
-      </c>
-      <c r="AC27">
-        <v>-15314000</v>
       </c>
       <c r="AD27">
         <v>-15314000</v>
       </c>
       <c r="AE27">
+        <v>-15314000</v>
+      </c>
+      <c r="AF27">
         <v>-14411000</v>
-      </c>
-      <c r="AF27">
-        <v>-13889000</v>
       </c>
       <c r="AG27">
         <v>-13889000</v>
@@ -3500,259 +3623,262 @@
         <v>-13889000</v>
       </c>
       <c r="AK27">
+        <v>-13889000</v>
+      </c>
+      <c r="AL27">
         <v>-12800000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-10389000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-9706000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-7776000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>409000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>8000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>12000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>730000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1186000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>7000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>921000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>131948000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>496422000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5972000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>297658000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>198139000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>4256000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4780000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>174825000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-195418000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>203043000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>293009000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-146967000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>278803000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2296000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>45982000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>36641000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>327666100</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2006000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>204003000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>147437000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>227961000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1415000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>97623000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>205268000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>760000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1593000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>711000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>241011000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>194812000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>672000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>184854000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1963000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>409000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>12000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>730000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1186000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>7000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>921000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>131948000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>496422000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>5972000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>297658000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>198139000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>4256000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>4780000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>174825000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-195418000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>203043000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>293009000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-146967000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>278803000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>2296000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>45982000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>36641000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>327666000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>2006000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>204003000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>147437000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>227961000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1415000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>97623000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>205268000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>760000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1593000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>711000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>241011000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>194812000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>672000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>184854000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1963000</v>
       </c>
     </row>
